--- a/data/long_dif/P23_9-Estudios-long_dif.xlsx
+++ b/data/long_dif/P23_9-Estudios-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>25,12%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>39,56%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>29,6%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>21,57%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>31,1%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32,45%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>23,15%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>38,93%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>22,74%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>31,69%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>22,93%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>35,16%</t>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>35,13%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>31,15%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,33; 31,74</t>
+          <t>16,03; 33,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,36; 52,16</t>
+          <t>31,8; 52,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,68; 29,13</t>
+          <t>17,82; 39,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,18; 38,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,13; 28,42</t>
+          <t>14,8; 29,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,69; 42,61</t>
+          <t>25,13; 37,71</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>24,58; 40,76</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17,64; 29,53</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>30,14; 42,15</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>24,35; 37,69</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>44,62%</t>
+          <t>44,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>34,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,97%</t>
+          <t>39,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,55%</t>
+          <t>40,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>40,03%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>39,05%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>42,02%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>37,5%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39,45%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,62; 61,19</t>
+          <t>34,35; 62,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,46; 41,39</t>
+          <t>26,39; 42,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,9; 47,04</t>
+          <t>25,24; 51,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,29; 46,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,97; 49,97</t>
+          <t>32,01; 49,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,05; 42,04</t>
+          <t>33,93; 47,13</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>31,34; 47,78</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>35,35; 51,51</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>32,11; 42,27</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>31,63; 46,23</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>30,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>25,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>38,28%</t>
+          <t>30,47%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>35,52%</t>
+          <t>38,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>28,87%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>28,5%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>34,83%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>27,37%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>29,4%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,59; 41,37</t>
+          <t>21,13; 40,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,58; 33,36</t>
+          <t>19,3; 32,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,93; 46,15</t>
+          <t>17,26; 57,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,41; 35,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,72; 42,2</t>
+          <t>29,62; 48,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,92; 32,5</t>
+          <t>22,72; 34,82</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>20,47; 35,88</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>28,35; 41,27</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>22,94; 31,96</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>22,37; 42,62</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,35; 36,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,75; 33,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,62; 25,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,7; 35,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,71; 29,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,54; 32,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>40,8%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>47,79%</t>
+          <t>28,97%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>47,48%</t>
+          <t>34,43%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>43,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>44,08%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>45,82%</t>
+          <t>31,18%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>36,55%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>24,29%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>30,04%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>35,46%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,44; 46,01</t>
+          <t>22,41; 36,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42,44; 53,47</t>
+          <t>24,42; 34,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>42,71; 52,68</t>
+          <t>28,23; 42,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39,43; 47,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>40,54; 48,37</t>
+          <t>16,62; 25,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>42,59; 49,45</t>
+          <t>27,3; 35,36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>31,38; 42,01</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>20,63; 28,93</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>26,95; 33,37</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>31,14; 39,85</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>29,44%</t>
+          <t>39,87%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>47,26%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30,93%</t>
+          <t>45,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,17%</t>
+          <t>49,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>44,29%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>38,36%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>44,82%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>45,82%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>42,16%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,84; 35,2</t>
+          <t>33,53; 46,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,7; 29,1</t>
+          <t>41,88; 52,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,72; 35,96</t>
+          <t>39,17; 52,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,54; 28,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,7; 33,73</t>
+          <t>43,89; 55,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,57; 27,73</t>
+          <t>39,85; 48,61</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>33,32; 43,9</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>40,52; 48,93</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>42,44; 49,21</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>38,22; 46,52</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>35,48%</t>
+          <t>23,77%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>24,53%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>25,09%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>30,89%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>24,14%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>22,38%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,59; 27,15</t>
+          <t>26,47; 39,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>29,79; 41,08</t>
+          <t>19,65; 29,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,58; 28,05</t>
+          <t>15,23; 25,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,86; 28,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,06; 25,89</t>
+          <t>25,15; 35,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,45; 33,45</t>
+          <t>21,11; 28,54</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20,53; 29,91</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>27,24; 35,32</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>21,19; 27,18</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18,74; 25,74</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>40,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>43,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>46,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>41,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>43,7%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>34,29; 46,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>35,3; 46,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>38,22; 48,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>41,5; 51,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>37,51; 45,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>39,92; 47,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>35,84%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>25,07%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>35,93%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>21,59%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>30,31%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>33,02%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>32,96; 45,71</t>
+          <t>14,41; 26,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,13; 28,63</t>
+          <t>31,13; 42,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>28,48; 38,21</t>
+          <t>23,87; 36,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>24,62; 33,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>31,88; 40,24</t>
+          <t>19,06; 28,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,28; 29,58</t>
+          <t>21,37; 29,74</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>31,03; 41,04</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>18,06; 25,95</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>27,11; 34,11</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>29,15; 36,92</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>25,69%</t>
+          <t>40,21%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>32,75%</t>
+          <t>40,84%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>45,45%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>29,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>46,12%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>49,75%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>41,71%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>43,55%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>47,68%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>22,38; 29,47</t>
+          <t>34,34; 47,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>29,23; 36,83</t>
+          <t>35,15; 46,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>19,67; 25,27</t>
+          <t>38,79; 51,6</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>26,65; 31,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>21,8; 26,25</t>
+          <t>37,28; 48,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>28,73; 33,13</t>
+          <t>41,61; 50,96</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>44,93; 55,26</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>37,39; 46,14</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>39,81; 47,01</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>42,94; 51,82</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>41,34%</t>
+          <t>40,04%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>44,35%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>43,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>33,48%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>43,27%</t>
+          <t>28,81%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>14,32%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>36,7%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>26,14%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>19,29%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>37,2; 45,06</t>
+          <t>33,59; 47,15</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>39,08; 46,31</t>
+          <t>19,21; 28,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>40,94; 47,85</t>
+          <t>18,98; 33,18</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>40,78; 46,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>40,28; 45,7</t>
+          <t>28,1; 39,15</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>40,97; 45,64</t>
+          <t>24,85; 33,55</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>10,91; 18,55</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>32,39; 41,44</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>23,12; 29,39</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>15,73; 24,01</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>32,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>33,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>33,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +2228,1179 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>29,32; 36,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>21,44; 27,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>30,31; 36,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>24,47; 29,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>30,88; 35,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,9; 27,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>32,25%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>23,63%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>28,31%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>24,69; 40,59</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>17,01; 31,03</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>22,82; 33,49</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>40,1%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>37,73%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>39,02%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>31,86; 51,25</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>30,4; 45,83</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>33,65; 46,0</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>27,65%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>38,64%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>32,67%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>19,96; 35,92</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>30,79; 45,94</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>26,99; 39,04</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>26,24%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>33,3%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>31,93%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>22,03%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>29,13%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>35,42%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>24,12%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>31,21%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>33,71%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>22,63; 30,25</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>29,7; 37,08</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>27,53; 36,86</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>19,34; 25,02</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>26,39; 31,74</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>32,36; 38,98</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>21,98; 26,59</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>29,1; 33,63</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>30,77; 36,59</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>40,61%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>42,68%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>44,52%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>44,29%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>43,96%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>42,56%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>42,46%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>43,32%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>43,52%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>37,03; 45,19</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>38,85; 46,3</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>39,56; 49,49</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>40,86; 47,6</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>40,95; 46,68</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>39,32; 46,19</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>39,81; 45,34</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>40,88; 45,64</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>40,46; 46,61</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>33,16%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>24,02%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>23,55%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>33,69%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>26,91%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>22,02%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>33,42%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>25,47%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>22,77%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>29,38; 37,35</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>21,11; 26,96</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>19,73; 30,37</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>30,32; 36,63</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>24,42; 29,33</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>18,99; 25,01</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>31,0; 35,95</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>23,51; 27,44</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>20,07; 26,71</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P23_9-Estudios-long_dif.xlsx
+++ b/data/long_dif/P23_9-Estudios-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -770,7 +770,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -884,7 +884,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1116,7 +1116,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1230,7 +1230,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1462,7 +1462,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1576,7 +1576,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1808,7 +1808,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1922,7 +1922,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
